--- a/Properties/McCord_Park_FL/McCordParkFL_WasteAnalysis_Validated.xlsx
+++ b/Properties/McCord_Park_FL/McCordParkFL_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,8 +67,17 @@
       <b val="1"/>
       <color rgb="009C0006"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001E3A8A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -86,6 +96,18 @@
         <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5E7EB"/>
+        <bgColor rgb="00E5E7EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEAFE"/>
+        <bgColor rgb="00DBEAFE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -99,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -113,6 +135,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1390,9 +1416,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
@@ -1421,9 +1445,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
@@ -1452,9 +1474,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
@@ -1490,9 +1510,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-    </row>
+    <row r="19"/>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
@@ -1521,9 +1539,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
@@ -1552,9 +1568,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-    </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
@@ -1704,4 +1718,198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - McCord Park FL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>RESEARCH NEEDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>FLORIDA PROPERTY - RESEARCH NEEDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Specific city/county regulations require research</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Contact local solid waste department for requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1. Research specific city/county solid waste ordinances</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2. Contact local solid waste department for requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3. Document findings in regulatory compliance summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>